--- a/biology/Zoologie/Indirana_beddomii/Indirana_beddomii.xlsx
+++ b/biology/Zoologie/Indirana_beddomii/Indirana_beddomii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana beddomii est une espèce d'amphibiens de la famille des Ranixalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana beddomii est une espèce d'amphibiens de la famille des Ranixalidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Ghâts occidentaux en Inde[1]. Elle se rencontre au Maharashtra, au Karnataka, au Kerala et au Tamil Nadu.
-C'est une espèce terrestre vivant dans les forêts tropicales humides et marécages. Elle n'est pas présente dans les zones cultivées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Ghâts occidentaux en Inde. Elle se rencontre au Maharashtra, au Karnataka, au Kerala et au Tamil Nadu.
+C'est une espèce terrestre vivant dans les forêts tropicales humides et marécages. Elle n'est pas présente dans les zones cultivées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana beddomii mesure environ 65 mm. Son dos est brun avec des taches sombres. Quelques rares spécimens sont uniformément rosâtres. Son ventre est blanchâtre. Les mâles ne présentent pas de sac vocal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana beddomii mesure environ 65 mm. Son dos est brun avec des taches sombres. Quelques rares spécimens sont uniformément rosâtres. Son ventre est blanchâtre. Les mâles ne présentent pas de sac vocal.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, beddomii, lui a été donné en référence à Richard Henry Beddome, militaire et naturaliste britannique.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1876 "1875" : Third report on collection of Indian reptiles obtained by British Museum. Proceedings of the Zoological Society of London, vol. 1875, p. 567-577 (texte intégral).</t>
         </is>
